--- a/KingyoSim.xlsx
+++ b/KingyoSim.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gotoufumiaki/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gotoufumiaki/Desktop/MyWork/Mirrativ/Documents/GenerateGoodRandamNumber/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6F94FB9-FF54-7C46-9779-22DA5D9B55C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC09DC92-9367-5E4E-A519-72CA61F6CA4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{BA5D2323-4BC9-364A-984F-941CE0875DA2}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19240" xr2:uid="{BA5D2323-4BC9-364A-984F-941CE0875DA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,18 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>係数</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケイスウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -90,6 +102,1006 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$7:$G$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1148</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1259</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1318</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1445</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1585</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1660</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1820</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-798C-FD47-BD8E-F2FE113CF6C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="385377888"/>
+        <c:axId val="385379568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="385377888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385379568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="385379568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385377888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15314E75-ADCB-DA48-BEAC-33F2E0F2CD3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,13 +1401,681 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6E0E6C-96E0-504C-B5C7-C1475617968E}">
-  <dimension ref="A1"/>
+  <dimension ref="C6:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="7" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:7">
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>1.01</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f>$C$7*ROUND(POWER($D$7,E7),2)/100</f>
+        <v>1.01</v>
+      </c>
+      <c r="G7">
+        <f>ROUND(SERIESSUM($C$7,F7,1,1),0)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F56" si="0">$C$7*ROUND(POWER($D$7,E8),2)/100</f>
+        <v>1.02</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G56" si="1">ROUND(SERIESSUM($C$7,F8,1,1),0)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1.03</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1.04</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1.05</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1.06</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1.07</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7">
+      <c r="E17">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19">
+        <v>13</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20">
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7">
+      <c r="E22">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1.17</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7">
+      <c r="E23">
+        <v>17</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1.18</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="E24">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="E25">
+        <v>19</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>1.21</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7">
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>1.22</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7">
+      <c r="E27">
+        <v>21</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1.23</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7">
+      <c r="E28">
+        <v>22</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>1.24</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7">
+      <c r="E29">
+        <v>23</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>1.26</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7">
+      <c r="E30">
+        <v>24</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>1.27</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7">
+      <c r="E31">
+        <v>25</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>1.28</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7">
+      <c r="E32">
+        <v>26</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7">
+      <c r="E33">
+        <v>27</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>1.31</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7">
+      <c r="E34">
+        <v>28</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>1.32</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7">
+      <c r="E35">
+        <v>29</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>1.33</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7">
+      <c r="E36">
+        <v>30</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>1.35</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7">
+      <c r="E37">
+        <v>31</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>1.36</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7">
+      <c r="E38">
+        <v>32</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>1.37</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7">
+      <c r="E39">
+        <v>33</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>1.39</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7">
+      <c r="E40">
+        <v>34</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>631</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7">
+      <c r="E41">
+        <v>35</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>1.42</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>692</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7">
+      <c r="E42">
+        <v>36</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>1.43</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>724</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7">
+      <c r="E43">
+        <v>37</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>1.45</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>794</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7">
+      <c r="E44">
+        <v>38</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>1.46</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7">
+      <c r="E45">
+        <v>39</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>1.47</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>871</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7">
+      <c r="E46">
+        <v>40</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>1.49</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>955</v>
+      </c>
+    </row>
+    <row r="47" spans="5:7">
+      <c r="E47">
+        <v>41</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="5:7">
+      <c r="E48">
+        <v>42</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>1.52</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7">
+      <c r="E49">
+        <v>43</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>1.53</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7">
+      <c r="E50">
+        <v>44</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>1.55</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7">
+      <c r="E51">
+        <v>45</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>1.56</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7">
+      <c r="E52">
+        <v>46</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>1.58</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7">
+      <c r="E53">
+        <v>47</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7">
+      <c r="E54">
+        <v>48</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>1.61</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7">
+      <c r="E55">
+        <v>49</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>1.63</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7">
+      <c r="E56">
+        <v>50</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>1.64</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>1905</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>